--- a/Source_Data/inflacion_acumulada.xlsx
+++ b/Source_Data/inflacion_acumulada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago Viezzoli\Desktop\Bootcamp Jupi Analisis de datos\ProyectoJupi\Source_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574A8758-DCA3-4279-A696-6D16C060040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24FD78D-3064-4E81-AA96-16B60FB65586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A729A06-7741-4FA8-A12D-879C501473A3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>AÑO</t>
   </si>
   <si>
-    <t>PORCENTAJE</t>
+    <t>VARIACION</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C2" s="1">
-        <v>94.8</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C3" s="1">
-        <v>211.4</v>
+        <v>254.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C4" s="1">
-        <v>117.8</v>
+        <v>84.5</v>
       </c>
     </row>
   </sheetData>
